--- a/SkiresortScraper/skiResort.xlsx
+++ b/SkiresortScraper/skiResort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,60 +466,75 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Easy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Difficult</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Youth</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Child</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Aerial tramway/reversible ropeway</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Circulating ropeway/gondola lift</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Chairlift</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>T-bar lift/platter/button lift</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>People mover/Moving Carpet</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Snow caterpillars for Cat-skiing</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Youth</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Child</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Rope tow/baby lift</t>
         </is>
@@ -555,47 +570,56 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>European Euro</t>
         </is>
       </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
       <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -623,46 +647,55 @@
         <v>2500</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>60.80</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>60.80</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>34.20</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>European Euro</t>
         </is>
       </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>14</v>
+      </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SkiresortScraper/skiResort.xlsx
+++ b/SkiresortScraper/skiResort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,75 +466,85 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Logo URL</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Easy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Difficult</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Youth</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Aerial tramway/reversible ropeway</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Circulating ropeway/gondola lift</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Chairlift</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>T-bar lift/platter/button lift</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>People mover/Moving Carpet</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Snow caterpillars for Cat-skiing</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Rope tow/baby lift</t>
         </is>
@@ -569,57 +579,67 @@
       <c r="F2" t="n">
         <v>2000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/84/42/2d/d8/0326e4726a.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.kitzski.at/</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>102</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>66</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>20</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>11</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>28</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>8</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>10</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>1</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -646,55 +666,65 @@
       <c r="F3" t="n">
         <v>2500</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/b7/77/72/27/3b74a66c33.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.zillertalarena.com</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>50</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>60.80</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>34.20</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>14</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>19</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>13</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>3</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/SkiresortScraper/skiResort.xlsx
+++ b/SkiresortScraper/skiResort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,77 +476,92 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Trail Map</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Easy</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Difficult</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Youth</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Aerial tramway/reversible ropeway</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Circulating ropeway/gondola lift</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Chairlift</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>T-bar lift/platter/button lift</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>People mover/Moving Carpet</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Snow caterpillars for Cat-skiing</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Rope tow/baby lift</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>People mover</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Sunkid Moving Carpet</t>
         </is>
       </c>
     </row>
@@ -589,57 +604,64 @@
           <t>https://www.kitzski.at/</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://map.kitzski.at/de/winter/</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>102</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>66</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>20</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>11</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>8</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>10</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -676,57 +698,238 @@
           <t>https://www.zillertalarena.com</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://zillertal.intermaps.com/zillertalarena</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>50</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>12</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>60.80</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>34.20</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>14</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>19</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>13</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>3</v>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
         <v>2</v>
       </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>san-martino-di-castrozza</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Europe Italy Trentino-Alto Adige (Trentino-Südtirol) Trentino San Martino di Castrozza/Passo Rolle/Primiero/Vanoi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/ski-resort/san-martino-di-castrozza/</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2357</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/a8/89/97/7c/b66baa648a.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.sanmartino.com/</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.dolomitisuperski.com/it/Live-info/Cartina-sciistica/San-Martino-di-Castrozza-Passo-Rolle</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>European Euro</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>paganella-andalo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Europe Italy Trentino-Alto Adige (Trentino-Südtirol) Trentino Altopiano della Paganella/Dolomiti di Brenta/Lago di Molveno</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/ski-resort/paganella-andalo/</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2125</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/user_upload/skigebiete/mitteleuropa/italy/andalo_paganella_ID_218/logo/paganella_logo.jpg</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.paganella.net/</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>European Euro</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>11</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SkiresortScraper/skiResort.xlsx
+++ b/SkiresortScraper/skiResort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,130 +436,140 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Resort Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Continent</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>State/Province</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Logo URL</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Website</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Trail Map</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Easy</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Intermediate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Difficult</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Youth</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Child</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Currency</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Aerial tramway/reversible ropeway</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Circulating ropeway/gondola lift</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Chairlift</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>T-bar lift/platter/button lift</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>People mover/Moving Carpet</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Snow caterpillars for Cat-skiing</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Rope tow/baby lift</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>People mover</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Sunkid Moving Carpet</t>
         </is>
@@ -573,95 +583,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Ski resort KitzSki – Kitzbühel/​Kirchberg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Europe Austria Tyrol (Tirol) Tiroler Unterland Kitzbühel (District) Kitzbühel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Europe Austria Tyrol (Tirol) Tiroler Unterland Kitzbüheler Alpen Brixental</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Europe Austria Salzburg (Salzburger Land) Pinzgau</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/ski-resort/kitzski-kitzbuehelkirchberg/</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2000</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/fileadmin/_processed_/84/42/2d/d8/0326e4726a.png</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.kitzski.at/</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://map.kitzski.at/de/winter/</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Kitzbühel - the legend: where skiing was ‘invented’, a venue for regular ski races since 1895 and home to the Streif, for decades the arena for the most famous international race in the Winter World Cup. But it is not just Kitzbühel's fantastic selection of slopes that make it such an irresistible destination for many visitors. The resort's unique blend of traditional and contemporary attracts skiers and celebrities from all over the world. An above-average number of luxury hotels, the highest concentration of award-winning restaurants in Tyrol and an amazing evening scene including numerous events make the winter sports resort and town of Kitzbühel Austria's meeting place for snow society throughout the entire winter.</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>102</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>66</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>20</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>57</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>1</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>11</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>8</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>10</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -671,91 +691,101 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Ski resort Zillertal Arena – Zell am Ziller/​Gerlos/​Königsleiten/​Hochkrimml</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Europe Austria Tyrol (Tirol) Tiroler Unterland Schwaz Zillertal Zell-Gerlos</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/ski-resort/zillertal-arena-zell-am-zillergerloskoenigsleitenhochkrimml/</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>2500</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/fileadmin/_processed_/b7/77/72/27/3b74a66c33.png</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.zillertalarena.com</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://zillertal.intermaps.com/zillertalarena</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>In the Zillertal Arena ski resort, extending from the Zillertal valley in Tyrol to Pinzgau in the Province of Salzburg, winter sports enthusiasts can enjoy an unbeatable variety of ski slopes. Varied, family-friendly and snow reliable - the Zillertal Arena offers recreation and fun for all ages. The winter sports resort's facilities range from SkiMovie routes and photo points to free WiFi hotspots throughout the entire ski resort. You can round off an action-packed day on the slopes with a ride on the Arena Coaster (alpine roller coaster) or a trip down the 7-kilometre Gerlosstein toboggan run.</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>50</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>12</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>60.80</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>34.20</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>4</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>14</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>19</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>13</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>3</v>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -765,87 +795,97 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Ski resort San Martino di Castrozza</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Europe Italy Trentino-Alto Adige (Trentino-Südtirol) Trentino San Martino di Castrozza/Passo Rolle/Primiero/Vanoi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/ski-resort/san-martino-di-castrozza/</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>2357</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/fileadmin/_processed_/a8/89/97/7c/b66baa648a.png</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.sanmartino.com/</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://www.dolomitisuperski.com/it/Live-info/Cartina-sciistica/San-Martino-di-Castrozza-Passo-Rolle</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>The ski resort of San Martino di Castrozza is situated in a beautiful Dolomite landscape. The amazing views of the Pale di San Martino (Pala group) and the traditional hospitality make a winter holiday in the ski resort of San Martino di Castrozza something special. The well-prepared slopes, most of which have snow-making capabilities, cater to all difficulty levels, with different gradients and offer lots of variety for fun skiing and snowboarding. There is a very good selection for both beginners and experts. There are two separate areas for children with moving carpets and practice lifts. Beautiful cross-country trails complete the varied offering in the winter sports resort of San Martino di Castrozza.</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>16</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>32</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>12</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>41</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>4</v>
       </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="n">
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -857,79 +897,89 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Ski resort Paganella – Andalo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Europe Italy Trentino-Alto Adige (Trentino-Südtirol) Trentino Altopiano della Paganella/Dolomiti di Brenta/Lago di Molveno</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/ski-resort/paganella-andalo/</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2125</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://www.skiresort.info/fileadmin/user_upload/skigebiete/mitteleuropa/italy/andalo_paganella_ID_218/logo/paganella_logo.jpg</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.paganella.net/</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>It is possible to enter the ski area on the Paganella directly from Andalo and Fai della Paganella. Lifts provide access to slopes of all difficulty levels. Some of the slopes for skiing and snowboarding are above the treeline and others are below. Different children's areas and beginners’ areas are distributed throughout the ski resort. The winter sports resort of Andalo also offers a wide range of other activities including cross-country skiing, snow-shoeing and winter hiking, tobogganing and much more. The view of the Dolomites and Lake Garda is magnificent.</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>11</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>27</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>71</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>European Euro</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
         <v>4</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>11</v>
       </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SkiresortScraper/skiResort.xlsx
+++ b/SkiresortScraper/skiResort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,258 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In the Zillertal Arena ski resort, extending from the Zillertal valley in Tyrol to Pinzgau in the Province of Salzburg, winter sports enthusiasts can enjoy an unbeatable variety of ski slopes. Varied, family-friendly and snow reliable - the Zillertal Arena offers recreation and fun for all ages. The winter sports resort's facilities range from SkiMovie routes and photo points to free WiFi hotspots throughout the entire ski resort. You can round off an action-packed day on the slopes with a ride on the Arena Coaster (alpine roller coaster) or a trip down the 7-kilometre Gerlosstein toboggan run.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://zillertal.intermaps.com/zillertalarena</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>zillertal-arena-zell-am-zillergerloskoenigsleitenhochkrimml</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ski resort Zillertal Arena – Zell am Ziller/​Gerlos/​Königsleiten/​Hochkrimml</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>60.80</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>34.20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>European Euro</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/b7/77/72/27/3b74a66c33.png</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.zillertalarena.com</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2872</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Visitors can enjoy unlimited skiing fun and reliable snow conditions from November until the beginning of May in the Silvretta Arena. The cross-border ski resort connects Ischgl in Austria with the Swiss duty-free village of Samnaun. From boarding to skiing, jumps in funparks or freeriding in powder - everything is possible. Very modern chairlifts and even a double-decker cable car transport skiers up to the Silvretta Arena. From beginners’ areas with wide runs to challenging steep slopes, the ski resort of Ischgl and Samnaun has something for everyone. You can end your day on the slopes in one of the many après-ski bars in the ski resort and in the party hotspot of Ischgl.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://winter.intermaps.com/silvretta_arena</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ischglsamnaun-silvretta-arena</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ski resort Ischgl/​Samnaun – Silvretta Arena</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>European Euro</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/f4/4e/e2/2c/448b8e6c3c.png</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.ischgl.com/</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>140</v>
+      </c>
+      <c r="N4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2426</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Großglockner Resort Kals-Matrei is East Tyrol’s largest ski resort and offers a breathtaking panorama of over sixty 3,000 metre peaks, including the Großglockner. At 3,798 metres it is the highest mountain in Austria. Snow transforms the region around Austria's highest mountain into a mecca for winter sports enthusiasts. You can ski or snowboard on groomed slopes, cross-country ski on prepared trails or speed down toboggan runs. The winter sports resort also offers hiking and sleigh rides through unspoiled snowy landscapes, far from mass tourism. The 4-star Gradonna Mountain Resort is located directly at the Großglockner Resort Kals-Matrei and offers exclusive accommodation right beside the ski slopes.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://winter.intermaps.com/kals_matrei?show=all</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>grossglockner-resort-kals-matrei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ski resort Großglockner Resort Kals-Matrei</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>European Euro</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/3d/d8/8a/ac/0235e9ded1.png</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.gg-resort.at/</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The ski resort of Hochkönig connects the villages of Mühlbach, Dienten and Maria Alm am Steinernen Meer. Since the 2018/2019 season, Maria Alm has been completely linked to the ski area by the new Natrunbahn and Sonnbergbahn lifts. Winter sports enthusiasts can find one of the most breathtaking ski tours in the Alps on the Hochkönig: the Königstour. The route, covering 35 kilometres of connected slopes and a highest point of around 1,900 metres, can be completed in a single day, making it an ideal day out for the whole family. The amazing powder and endless expanses in the magical world around the imposing Hochkönig make skiing a very special experience. As do the lovingly prepared culinary delights served in rustic huts throughout the entire ski resort.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.skiamade.com/de/Live-info/Pistenpanorama/Pistenpanorama?zoom=867</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>hochkoenig-maria-almdientenmuehlbach</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ski resort Hochkönig – Maria Alm/​Dienten/​Mühlbach</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>76.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>European Euro</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.skiresort.info/fileadmin/_processed_/33/32/29/9b/4535ed60be.png</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.hochkoenig.at/</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>41</v>
+      </c>
+      <c r="N6" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
